--- a/data/trans_camb/P20_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20_1_R-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>3,73</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 18,7</t>
+          <t>-15,14; 23,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 7,89</t>
+          <t>-1,98; 10,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 11,08</t>
+          <t>-6,26; 13,17</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>28,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,71%</t>
+          <t>78,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>41,01%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,83; 188,95</t>
+          <t>-74,13; 350,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 161,47</t>
+          <t>-36,39; 465,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,1; 135,88</t>
+          <t>-53,21; 241,23</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,74</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 5,14</t>
+          <t>-0,69; 8,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 2,36</t>
+          <t>-7,45; 3,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,85</t>
+          <t>-2,97; 4,25</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>60,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,64%</t>
+          <t>-15,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,23%</t>
+          <t>7,61%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 69,73</t>
+          <t>-9,91; 194,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,73; 21,8</t>
+          <t>-47,38; 36,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 28,6</t>
+          <t>-25,22; 52,89</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-1,47</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 5,45</t>
+          <t>-6,58; 5,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 4,58</t>
+          <t>-8,62; 4,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 3,52</t>
+          <t>-6,03; 2,59</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>-3,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,46%</t>
+          <t>-12,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>-10,23%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,22; 68,34</t>
+          <t>-46,56; 82,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 36,17</t>
+          <t>-40,55; 32,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 31,71</t>
+          <t>-35,07; 22,22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 5,68</t>
+          <t>-2,14; 5,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 2,31</t>
+          <t>-2,83; 3,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 3,06</t>
+          <t>-1,52; 3,42</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,8%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>8,82%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 63,55</t>
+          <t>-19,7; 63,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 19,74</t>
+          <t>-23,96; 40,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 28,77</t>
+          <t>-13,8; 38,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 4,88</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 2,52</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,72; 2,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>19,98%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0,08%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>8,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-7,4; 58,84</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-19,17; 23,18</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-6,47; 29,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P20_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20_1_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,1</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,72</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,73</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.108513692845583</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>4.449980569622774</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.507908126522095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-15,14; 23,07</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,98; 10,33</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,26; 13,17</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-18.10847221958099</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.320375266295839</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.563863702474747</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>28,98%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>78,98%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>41,01%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>18.67089288856529</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.15179028984987</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.20347188899199</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-74,13; 350,41</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-36,39; 465,56</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-53,21; 241,23</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.2030628323650616</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.8246435303678874</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.3459689671846618</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,8</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,03</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.772779295315315</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.4076070721605298</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.5545448057844671</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 8,06</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,45; 3,26</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,97; 4,25</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>2.472700731240997</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>4.220898069033255</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.784056031539663</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>60,94%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-15,59%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,61%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>3.97095299484677</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.897446059725707</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.4194730468872754</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-9,91; 194,34</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-47,38; 36,58</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-25,22; 52,89</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.3010176422327805</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.716781523308779</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.403546229965093</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,2</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.954843942153053</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.703416714783976</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.945482761282514</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,58; 5,63</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-8,62; 4,24</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,03; 2,59</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.5968159201240131</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.2033776155023767</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.03965192933342328</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-3,74%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-12,66%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-10,23%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.06775140409856965</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.4956794791212243</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2777406361296225</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-46,56; 82,91</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-40,55; 32,49</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-35,07; 22,22</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>2.042677674035866</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.2615489851195391</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.4681670038295592</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.334661712940684</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-2.516699247658138</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-2.143441023786663</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,14; 5,15</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,83; 3,85</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,52; 3,42</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-7.601499204735466</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-9.050169913427371</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-6.751721850936103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>13,06%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>4,97%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>8,82%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4.427529359898442</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3.741695878633474</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.908928863090896</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-19,7; 63,29</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-23,96; 40,99</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-13,8; 38,14</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.1135277489593556</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.1403964854456235</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.1414470535876407</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,87</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.509777299592952</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.4188849282063921</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.3871417423610244</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 4,88</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-2,46; 2,52</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 2,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.5172057135381769</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.2734665218044137</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1504120520093565</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>19,98%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>0,08%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>8,77%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.972626329209164</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.651480135847017</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.04916879593299811</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-7,4; 58,84</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-19,17; 23,18</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-6,47; 29,9</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.017672608946469</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-5.276818644417782</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.064866783413801</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.439098471410786</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.108660203992455</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.050967611607007</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.2003679142589508</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.1166487304875724</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.004053700573691826</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.2478570147739886</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.3325069643349895</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.2228711856909233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.864141825275657</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1732370031959749</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.2802804535991545</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
